--- a/datasets.xlsx
+++ b/datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\data-driven-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73624EF-6F23-4E67-A67E-AF63DB3C04A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F5DD55-3E50-4A69-816C-3FE2B11EE7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>LEAGUE</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>Bosnian Premier League 24-25.xlsx</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>24-25</t>
   </si>
 </sst>
 </file>
@@ -360,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -371,28 +377,37 @@
     <col min="2" max="2" width="26.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/datasets.xlsx
+++ b/datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\data-driven-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F5DD55-3E50-4A69-816C-3FE2B11EE7AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFD8A93-86D3-40C2-B188-041E876EBCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>LEAGUE</t>
   </si>
@@ -49,6 +49,24 @@
   </si>
   <si>
     <t>24-25</t>
+  </si>
+  <si>
+    <t>23-24</t>
+  </si>
+  <si>
+    <t>22-23</t>
+  </si>
+  <si>
+    <t>21-22</t>
+  </si>
+  <si>
+    <t>Romanian-Superliga-23-24.xlsx</t>
+  </si>
+  <si>
+    <t>Romanian-Superliga-21-22.xlsx</t>
+  </si>
+  <si>
+    <t>Romanian-Superliga-22-23.xlsx</t>
   </si>
 </sst>
 </file>
@@ -84,8 +102,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,10 +385,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -410,6 +429,39 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/datasets.xlsx
+++ b/datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\data-driven-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEFD8A93-86D3-40C2-B188-041E876EBCE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834359A4-C7D8-4D6A-97B2-58C50BBAB576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
   <si>
     <t>LEAGUE</t>
   </si>
@@ -46,18 +46,6 @@
   </si>
   <si>
     <t>YEAR</t>
-  </si>
-  <si>
-    <t>24-25</t>
-  </si>
-  <si>
-    <t>23-24</t>
-  </si>
-  <si>
-    <t>22-23</t>
-  </si>
-  <si>
-    <t>21-22</t>
   </si>
   <si>
     <t>Romanian-Superliga-23-24.xlsx</t>
@@ -104,7 +92,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,7 +376,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,8 +402,8 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
+      <c r="C2" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -425,8 +413,8 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
+      <c r="C3" s="1">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -434,10 +422,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -445,10 +433,10 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
         <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -456,10 +444,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/datasets.xlsx
+++ b/datasets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\data-driven-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{834359A4-C7D8-4D6A-97B2-58C50BBAB576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEB92D2B-479A-42C6-BDE5-C9168814EEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>LEAGUE</t>
   </si>
@@ -55,6 +55,18 @@
   </si>
   <si>
     <t>Romanian-Superliga-22-23.xlsx</t>
+  </si>
+  <si>
+    <t>24-25</t>
+  </si>
+  <si>
+    <t>23-24</t>
+  </si>
+  <si>
+    <t>22-23</t>
+  </si>
+  <si>
+    <t>21-22</t>
   </si>
 </sst>
 </file>
@@ -376,7 +388,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C6" sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -402,8 +414,8 @@
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>25</v>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -413,8 +425,8 @@
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
-        <v>25</v>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -424,8 +436,8 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
-        <v>24</v>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -435,8 +447,8 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1">
-        <v>23</v>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -446,8 +458,8 @@
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1">
-        <v>22</v>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
